--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5855E3B-C159-47FE-B9A1-30CC18E43636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709F3BC-7A76-429F-A507-B3CAB4BBB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <t>categoryId</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>subCategory</t>
-  </si>
-  <si>
     <t>taxPercent</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>מלאי</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>subCategoryName</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,28 +511,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1374,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>6</v>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709F3BC-7A76-429F-A507-B3CAB4BBB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A79C0-51F3-457A-8D61-8C497BE9F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>דלק</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">יועצים </t>
-  </si>
-  <si>
-    <t>categoryId</t>
   </si>
   <si>
     <t>taxPercent</t>
@@ -491,30 +488,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.296875" customWidth="1"/>
-    <col min="7" max="7" width="16.296875" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -531,13 +527,10 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,25 +538,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>45</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -571,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -583,13 +573,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -597,25 +584,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>45</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -623,25 +607,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -649,25 +630,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>45</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -675,25 +653,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>45</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -701,25 +676,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>45</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -727,25 +699,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -753,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -765,13 +734,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -779,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -791,13 +757,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -805,25 +768,22 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -831,25 +791,22 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -857,25 +814,22 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>25</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -883,25 +837,22 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>25</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -909,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -921,13 +872,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -935,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -947,13 +895,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -961,25 +906,22 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>25</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -987,25 +929,22 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1013,25 +952,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1039,25 +975,22 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1065,25 +998,22 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1091,25 +1021,22 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1117,25 +1044,22 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1143,25 +1067,22 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1169,25 +1090,22 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1195,25 +1113,22 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1221,25 +1136,22 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1247,25 +1159,22 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1273,25 +1182,22 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1299,10 +1205,10 @@
         <v>18</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1311,13 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1325,10 +1228,10 @@
         <v>19</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1337,13 +1240,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1351,10 +1251,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1363,35 +1263,29 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
         <v>1</v>
       </c>
     </row>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A79C0-51F3-457A-8D61-8C497BE9F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC8271E-2DE2-473B-A226-23636CCC18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>דלק</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>subCategoryName</t>
+  </si>
+  <si>
+    <t>דוח שנתי</t>
+  </si>
+  <si>
+    <t>תרומה מוכרת</t>
+  </si>
+  <si>
+    <t>ביטוח חיים</t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1298,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC8271E-2DE2-473B-A226-23636CCC18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203BDE8D-01BD-4988-A6D1-BB2303B2EDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>דלק</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>ביטוח חיים</t>
+  </si>
+  <si>
+    <t>isExpense</t>
+  </si>
+  <si>
+    <t>הכנסה מעסק</t>
+  </si>
+  <si>
+    <t>משכורת</t>
+  </si>
+  <si>
+    <t>ביטוח לאומי</t>
+  </si>
+  <si>
+    <t>מילואים</t>
+  </si>
+  <si>
+    <t>קצבת ילדים</t>
+  </si>
+  <si>
+    <t>דמי לידה</t>
   </si>
 </sst>
 </file>
@@ -497,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,7 +532,8 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18.296875" customWidth="1"/>
     <col min="6" max="6" width="16.296875" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="7" max="7" width="27.796875" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -536,7 +558,9 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,6 +585,9 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -584,6 +611,9 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -607,6 +637,9 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -630,6 +663,9 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -653,6 +689,9 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -676,6 +715,9 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -699,6 +741,9 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -722,6 +767,9 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -745,6 +793,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -768,6 +819,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -791,6 +845,9 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -814,6 +871,9 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -837,6 +897,9 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -860,6 +923,9 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -883,8 +949,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -906,8 +975,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -929,8 +1001,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -952,8 +1027,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -975,8 +1053,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -998,8 +1079,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1021,8 +1105,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1044,8 +1131,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1067,8 +1157,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1090,8 +1183,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1113,8 +1209,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1136,8 +1235,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1261,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1182,8 +1287,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1205,8 +1313,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1228,8 +1339,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1251,8 +1365,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1274,8 +1391,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1297,8 +1417,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1320,8 +1443,11 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1341,6 +1467,139 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C5927-E1F5-4375-A561-6B4ED8F8D88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF81E7-B5D2-40E4-B053-DC12A7587A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF81E7-B5D2-40E4-B053-DC12A7587A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B209E-82C5-43E0-B23C-4DD8789A6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>דלק</t>
   </si>
@@ -150,9 +150,6 @@
     <t>subCategoryName</t>
   </si>
   <si>
-    <t>דוח שנתי</t>
-  </si>
-  <si>
     <t>תרומה מוכרת</t>
   </si>
   <si>
@@ -231,7 +228,67 @@
     <t>הכנסה פטורה ממע"מ</t>
   </si>
   <si>
-    <t>הכנסה משכר דירה</t>
+    <t>הוצאות רפואיות</t>
+  </si>
+  <si>
+    <t>קופת חולים</t>
+  </si>
+  <si>
+    <t>בית מרקחת</t>
+  </si>
+  <si>
+    <t>ביטוח חיים למשכנתא</t>
+  </si>
+  <si>
+    <t>ביטוח בריאות</t>
+  </si>
+  <si>
+    <t>ביטוח דירה</t>
+  </si>
+  <si>
+    <t>אפליקציות תשלום</t>
+  </si>
+  <si>
+    <t>ביט</t>
+  </si>
+  <si>
+    <t>פייבוקס</t>
+  </si>
+  <si>
+    <t>קניות באינטרנט</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Shein</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Ali-Express</t>
+  </si>
+  <si>
+    <t>תרומה לא מוכרת</t>
+  </si>
+  <si>
+    <t>תרומות</t>
+  </si>
+  <si>
+    <t>השקעות</t>
+  </si>
+  <si>
+    <t>השקעה בשוק ההון</t>
+  </si>
+  <si>
+    <t>הפקדה לפיקדון</t>
+  </si>
+  <si>
+    <t>הכנסות נוספות</t>
+  </si>
+  <si>
+    <t>ריבית</t>
   </si>
 </sst>
 </file>
@@ -589,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -630,13 +687,13 @@
         <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -663,10 +720,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -690,10 +747,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -717,7 +774,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -744,7 +801,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -771,7 +828,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -798,7 +855,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -825,7 +882,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -851,589 +908,577 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>45</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D22" s="4">
         <v>33</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
         <v>45</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C24" s="4">
         <v>45</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D24" s="4">
         <v>33</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
         <v>33</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E25" s="4">
         <v>15</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C26" s="4">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D26" s="4">
         <v>33</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C27" s="4">
         <v>45</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D27" s="4">
         <v>33</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C29" s="4">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4">
         <v>33</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C32" s="5">
         <v>25</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D32" s="5">
         <v>25</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5">
-        <v>100</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5">
-        <v>100</v>
-      </c>
-      <c r="D24" s="5">
-        <v>100</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>80</v>
-      </c>
-      <c r="D25" s="5">
-        <v>80</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5">
-        <v>100</v>
-      </c>
-      <c r="D26" s="5">
-        <v>100</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5">
-        <v>100</v>
-      </c>
-      <c r="D27" s="5">
-        <v>100</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="5">
-        <v>100</v>
-      </c>
-      <c r="D28" s="5">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="5">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5">
-        <v>100</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="5">
-        <v>100</v>
-      </c>
-      <c r="D31" s="5">
-        <v>100</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5">
-        <v>100</v>
-      </c>
-      <c r="D32" s="5">
-        <v>100</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1450,16 +1495,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1476,16 +1521,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D34" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1505,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5">
         <v>100</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1531,19 +1576,19 @@
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
       </c>
       <c r="E36" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -1557,19 +1602,19 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C37" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E37" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -1583,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C38" s="5">
         <v>100</v>
@@ -1609,13 +1654,13 @@
         <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C39" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -1624,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -1635,13 +1680,13 @@
         <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C40" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D40" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -1650,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -1661,13 +1706,13 @@
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D41" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -1676,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -1684,10 +1729,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C42" s="5">
         <v>100</v>
@@ -1710,10 +1755,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43" s="5">
         <v>100</v>
@@ -1736,16 +1781,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C44" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -1762,13 +1807,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
@@ -1788,13 +1833,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C46" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D46" s="5">
         <v>0</v>
@@ -1814,13 +1859,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C47" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
@@ -1832,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -1840,25 +1885,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -1866,25 +1911,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
       </c>
       <c r="D49" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -1892,16 +1937,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C50" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D50" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -1910,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -1918,10 +1963,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
@@ -1936,18 +1981,18 @@
         <v>0</v>
       </c>
       <c r="G51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="5">
         <v>0</v>
@@ -1962,18 +2007,18 @@
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5">
         <v>0</v>
@@ -1991,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="H53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C54" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D54" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -2014,24 +2059,24 @@
         <v>0</v>
       </c>
       <c r="G54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C55" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -2040,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C56" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
@@ -2066,35 +2111,425 @@
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5">
+        <v>25</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="5">
+        <v>25</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
         <v>0</v>
       </c>
     </row>

--- a/backend/src/transactions/categories.xlsx
+++ b/backend/src/transactions/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harel\Elazar Harel\taxmyself\taxmyself-dev\backend\src\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B209E-82C5-43E0-B23C-4DD8789A6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0028BB-45F4-45D9-B733-791C7A0E528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,12 +968,24 @@
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,12 +995,24 @@
       <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
